--- a/data/trans_camb/P15B_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15B_3_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-27.31896309574848</v>
+        <v>-28.8853646493922</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-36.98204680107806</v>
+        <v>-39.37145442777412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-37.93037345626988</v>
+        <v>-35.75949982334694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.48109317377556</v>
+        <v>-16.04498589889965</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.5553323350111</v>
+        <v>-14.21105080959254</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.51451368001403</v>
+        <v>-13.87178462528524</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-14.14705863854767</v>
+        <v>-14.76172093068744</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-20.25333048075454</v>
+        <v>-18.37085824768207</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-18.36619067407049</v>
+        <v>-19.58902046331999</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.06692640098721</v>
+        <v>14.79765643153795</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2640677109342485</v>
+        <v>2.404000002980033</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.538476594263214</v>
+        <v>5.614139547249299</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8688532747849632</v>
+        <v>1.083862728424976</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.975585263418156</v>
+        <v>3.109307643844904</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.000879371068917</v>
+        <v>2.596021718126715</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.014547630164527</v>
+        <v>4.474805141271928</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.4052155191313424</v>
+        <v>-0.292151123879931</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.6391842816750035</v>
+        <v>-0.2044012106242588</v>
       </c>
     </row>
     <row r="7">
@@ -780,27 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5991754257818198</v>
+        <v>-0.621012604454338</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8912239634692555</v>
+        <v>-0.9059176774136495</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8586738792825793</v>
+        <v>-0.8598897106169164</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="n">
-        <v>-0.93571649406601</v>
-      </c>
+      <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6347069257097568</v>
+        <v>-0.6576752871201513</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8484629690942175</v>
+        <v>-0.8635475406956713</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8479978325244371</v>
+        <v>-0.8328915353157622</v>
       </c>
     </row>
     <row r="9">
@@ -811,27 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.242403437164178</v>
+        <v>1.21579035698351</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.371443047730611</v>
+        <v>0.2053217957199242</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6043710688405799</v>
+        <v>0.6418310192203057</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="n">
-        <v>1.690591438257829</v>
-      </c>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.6447872522691485</v>
+        <v>0.5923173910077748</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1959965393633935</v>
+        <v>0.09880340304133242</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.02755933413230923</v>
+        <v>0.0990817138977709</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +848,7 @@
         <v>-19.81924491614441</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-8.55785557042511</v>
+        <v>-8.557855570425115</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-7.231119632984297</v>
@@ -861,7 +857,7 @@
         <v>-4.477855180754927</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-2.698691808942999</v>
+        <v>-2.698691808943</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-14.55871264301122</v>
@@ -870,7 +866,7 @@
         <v>-15.97238568383386</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-9.142178778740655</v>
+        <v>-9.142178778740659</v>
       </c>
     </row>
     <row r="11">
@@ -881,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-28.56230922129423</v>
+        <v>-28.44224535541829</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-32.73680119184361</v>
+        <v>-33.22320108300834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.88075490143251</v>
+        <v>-21.7913099497305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-22.1643527708917</v>
+        <v>-20.14945370319032</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-20.00467508446854</v>
+        <v>-17.90710884139427</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.97652979839616</v>
+        <v>-17.41625289205245</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-25.00220224376271</v>
+        <v>-24.59449071413566</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-26.129866665222</v>
+        <v>-25.70094983854241</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-19.04421111531461</v>
+        <v>-20.12745215455226</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.385384992389187</v>
+        <v>-4.08860602089246</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.347228377757243</v>
+        <v>-5.680608948591891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.954543189830988</v>
+        <v>6.464947860423376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.103436555839592</v>
+        <v>3.868340523305105</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.391152100622975</v>
+        <v>8.033870018580897</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.766027544312085</v>
+        <v>8.1386219864218</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-5.927064513670292</v>
+        <v>-5.298397346376633</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-6.6720579179773</v>
+        <v>-5.376374560040404</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.335737092848389</v>
+        <v>1.131407066666147</v>
       </c>
     </row>
     <row r="13">
@@ -957,7 +953,7 @@
         <v>-0.5295076720892303</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2286388911557581</v>
+        <v>-0.2286388911557582</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5209505136285296</v>
@@ -975,7 +971,7 @@
         <v>-0.5295552061843032</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3031036480073095</v>
+        <v>-0.3031036480073097</v>
       </c>
     </row>
     <row r="14">
@@ -986,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6218749540377208</v>
+        <v>-0.6253839853221952</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7190755759023708</v>
+        <v>-0.7142145512450727</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5101413244780855</v>
+        <v>-0.4925364109204684</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8509919811158099</v>
+        <v>-0.8526688059408737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.808921846125218</v>
+        <v>-0.7493692329519943</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6739963738959323</v>
+        <v>-0.6861755524620557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6652543843710667</v>
+        <v>-0.6483329613392774</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6945011449473628</v>
+        <v>-0.6993603871137571</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5344404985762665</v>
+        <v>-0.5365514558751713</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1442178158579247</v>
+        <v>-0.143753907126521</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1965167407440566</v>
+        <v>-0.1931989369636819</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1785805437797858</v>
+        <v>0.224156200757903</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8871750380268667</v>
+        <v>0.9273231574007635</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.472318607685053</v>
+        <v>1.878964777872233</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.639179495930989</v>
+        <v>1.530576566972119</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2401300566154431</v>
+        <v>-0.2180873631785204</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2667695158673828</v>
+        <v>-0.2151942843162358</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1151551575882032</v>
+        <v>0.0618371304050758</v>
       </c>
     </row>
     <row r="16">
@@ -1095,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-22.23006430838203</v>
+        <v>-25.33228910817226</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-30.36188715777066</v>
+        <v>-37.30445795679035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-34.45236133750089</v>
+        <v>-37.40610552337038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-29.6716553126428</v>
+        <v>-33.70550699146747</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-28.63545779478059</v>
+        <v>-34.38971579590456</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-41.07451604232714</v>
+        <v>-39.80006239202341</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-17.33089110913658</v>
+        <v>-16.20913081434035</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-21.56395431937318</v>
+        <v>-23.24106328830179</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-26.34979199766206</v>
+        <v>-29.57111999045668</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.26956297673586</v>
+        <v>24.0364121290845</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.97256876126722</v>
+        <v>10.80362003677228</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.642367873996232</v>
+        <v>7.063657145035532</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.8080669442363</v>
+        <v>23.25904702750989</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.11817963816984</v>
+        <v>18.25423856474271</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.095489832560641</v>
+        <v>6.171531366984082</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>19.04711576222935</v>
+        <v>19.46848850175972</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.46703212580318</v>
+        <v>10.67126437486904</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.121912886710557</v>
+        <v>4.373399399659431</v>
       </c>
     </row>
     <row r="19">
@@ -1199,21 +1195,19 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>-0.9281748346755638</v>
-      </c>
+      <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.7656774989461432</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>-0.8373809296687361</v>
-      </c>
-      <c r="K20" s="6" t="inlineStr"/>
+        <v>-0.7724084631555719</v>
+      </c>
+      <c r="J20" s="6" t="inlineStr"/>
+      <c r="K20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1228,12 +1222,8 @@
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
-      <c r="I21" s="6" t="n">
-        <v>5.397684544256336</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>3.009998542804586</v>
-      </c>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1254,7 +1244,7 @@
         <v>-17.45974065927425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.03436562996197</v>
+        <v>-10.03436562996198</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-4.849381659781986</v>
@@ -1272,7 +1262,7 @@
         <v>-11.54185500328479</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-8.168661408141601</v>
+        <v>-8.168661408141602</v>
       </c>
     </row>
     <row r="23">
@@ -1283,31 +1273,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-21.0145597285198</v>
+        <v>-20.55597584221171</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-27.4741862999183</v>
+        <v>-28.40032373754402</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-21.81943818236344</v>
+        <v>-21.55714853781285</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.46534848631506</v>
+        <v>-13.44036287664912</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.09981349430547</v>
+        <v>-10.96756351690562</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-10.57174576608198</v>
+        <v>-10.78357236316814</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-15.23262875078336</v>
+        <v>-15.59441939985194</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-19.09181003981929</v>
+        <v>-18.28030398146981</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-14.56574606883545</v>
+        <v>-15.04082120252906</v>
       </c>
     </row>
     <row r="24">
@@ -1318,31 +1308,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.8647434043212199</v>
+        <v>-0.3793516652721258</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.724038363302394</v>
+        <v>-7.030142842219539</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.032513776510452</v>
+        <v>0.9598317729594963</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.012510131180195</v>
+        <v>1.083548617903139</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.310077187492659</v>
+        <v>3.313219019436288</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.208692285604769</v>
+        <v>3.13218049971385</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.14236728630557</v>
+        <v>-2.267179956874539</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.280906388003297</v>
+        <v>-5.658585535175384</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.114649228588243</v>
+        <v>-1.346594949297574</v>
       </c>
     </row>
     <row r="25">
@@ -1359,7 +1349,7 @@
         <v>-0.544122117998902</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3127148556155728</v>
+        <v>-0.3127148556155729</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.4794689030787955</v>
@@ -1377,7 +1367,7 @@
         <v>-0.5110676454814789</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3617042972213935</v>
+        <v>-0.3617042972213936</v>
       </c>
     </row>
     <row r="26">
@@ -1388,31 +1378,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5310480293098395</v>
+        <v>-0.5425333327890094</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7092268611935589</v>
+        <v>-0.7146842348569967</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5637497606525693</v>
+        <v>-0.552792345093007</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7939768261919584</v>
+        <v>-0.8036901782591261</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6711783996992151</v>
+        <v>-0.7234786462889019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6846574382495978</v>
+        <v>-0.675750941381998</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5547956986461776</v>
+        <v>-0.5595938724019651</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6873402725469875</v>
+        <v>-0.6611798463149149</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5614154459503403</v>
+        <v>-0.5539449309573392</v>
       </c>
     </row>
     <row r="27">
@@ -1423,31 +1413,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03610738845724232</v>
+        <v>-0.01114573109669267</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2864092940629991</v>
+        <v>-0.2678472644944607</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.05251974043197886</v>
+        <v>0.0530474416364986</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3155262866330699</v>
+        <v>0.3008771483069139</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6691252160170947</v>
+        <v>0.6437910598764823</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5874082931481227</v>
+        <v>0.6799846934680202</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.09994621401877572</v>
+        <v>-0.1265286458184398</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2866229869377649</v>
+        <v>-0.2793080483293668</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.07681893187652189</v>
+        <v>-0.08340389794089996</v>
       </c>
     </row>
     <row r="28">
